--- a/data-raw/key.xlsx
+++ b/data-raw/key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johngiles/Library/CloudStorage/Dropbox/Projects/IDM/ES_multipathogen/Rproj/esdata/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4F3E14-A898-614B-8E0B-018B260A38D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C53485A-D2B4-9F4E-A0E7-09CC8E4D2CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="26380" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -638,10 +638,10 @@
     <t>SARS_CoV2_E</t>
   </si>
   <si>
-    <t>SARS-CoV2_N1</t>
-  </si>
-  <si>
-    <t>SARS-CoV2_N2</t>
+    <t>SARS_CoV2_N1</t>
+  </si>
+  <si>
+    <t>SARS_CoV2_N2</t>
   </si>
 </sst>
 </file>
@@ -1484,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F141" sqref="F141"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
